--- a/apifile/DeviceController.xlsx
+++ b/apifile/DeviceController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5430" yWindow="1725" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,16 +437,16 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col width="78.25" customWidth="1" min="1" max="1"/>
     <col width="13.625" customWidth="1" min="2" max="2"/>
-    <col width="32.875" customWidth="1" min="3" max="3"/>
+    <col width="75.25" customWidth="1" min="3" max="3"/>
     <col width="49.375" customWidth="1" min="6" max="6"/>
-    <col width="17.75" customWidth="1" min="7" max="7"/>
+    <col width="22.375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customFormat="1" customHeight="1" s="2">
@@ -504,7 +504,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'configurableAttrs': [{'uKey': 'serverIp', 'value': '11'}, {'uKey': 'terid', 'value': 11}], 'uid': 'testzWuLydbKup', 'name': 'testzWuLydbKup', 'deviceModelId': '738682240710184960', 'id': '776398152869007360', 'appLabelList': {'deviceArea': '009', 'manager': '041', 'installationDate': '2020-11-11', 'qualityAssuranceDate': '2022-11-30', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': '广东省广州市南沙区黄阁镇银华街', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.528413, 22.801362], 'type': 'Point'}, 'realVirtualMark': 'REAL', 'onlineStatus': 'UNACTIVATED', 'deviceType': 'Radio', 'appLabels': [{'key': 'deviceArea', 'value': '009'}, {'key': 'manager', 'value': '041'}, {'key': 'installationDate', 'value': '2020-11-11'}, {'key': 'qualityAssuranceDate', 'value': '2022-11-30'}, {'key': 'address', 'value': '广东省广州市南沙区黄阁镇银华街'}]}</t>
+          <t>{'configurableAttrs': [{'uKey': 'serverIp', 'value': '11'}, {'uKey': 'terid', 'value': 11}], 'uid': 'testLQO8WYJBup', 'name': 'testLQO8WYJBup', 'deviceModelId': '738682240710184960', 'id': '780457073229545472', 'appLabelList': {'deviceArea': '009', 'manager': '041', 'installationDate': '2020-11-11', 'qualityAssuranceDate': '2022-11-30', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': '广东省广州市南沙区黄阁镇银华街', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.528413, 22.801362], 'type': 'Point'}, 'realVirtualMark': 'REAL', 'onlineStatus': 'UNACTIVATED', 'deviceType': 'Radio', 'appLabels': [{'key': 'deviceArea', 'value': '009'}, {'key': 'manager', 'value': '041'}, {'key': 'installationDate', 'value': '2020-11-11'}, {'key': 'qualityAssuranceDate', 'value': '2022-11-30'}, {'key': 'address', 'value': '广东省广州市南沙区黄阁镇银华街'}]}</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -520,11 +520,6 @@
           <t>更新设备</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>data数据由代码写入</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
@@ -629,7 +624,7 @@
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices/getByIds?ids=776398152869007360</t>
+          <t>http://island.dev.iot-cas.com:8081/island/devices/getByIds?ids=780457073229545472</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -650,11 +645,6 @@
           <t>根据id获取设备状态</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>url数据由代码写入</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
@@ -684,7 +674,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices?ids=776398152869007360</t>
+          <t>http://island.dev.iot-cas.com:8081/island/devices?ids=780457073229545472</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -703,11 +693,6 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>删除设备</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>url数据由代码写入</t>
         </is>
       </c>
     </row>

--- a/apifile/DeviceController.xlsx
+++ b/apifile/DeviceController.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -494,7 +494,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device</t>
+          <t>http://island.iot-cas.com:8081/island/device</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'configurableAttrs': [{'uKey': 'serverIp', 'value': '11'}, {'uKey': 'terid', 'value': 11}], 'uid': 'testLQO8WYJBup', 'name': 'testLQO8WYJBup', 'deviceModelId': '738682240710184960', 'id': '780457073229545472', 'appLabelList': {'deviceArea': '009', 'manager': '041', 'installationDate': '2020-11-11', 'qualityAssuranceDate': '2022-11-30', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': '广东省广州市南沙区黄阁镇银华街', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.528413, 22.801362], 'type': 'Point'}, 'realVirtualMark': 'REAL', 'onlineStatus': 'UNACTIVATED', 'deviceType': 'Radio', 'appLabels': [{'key': 'deviceArea', 'value': '009'}, {'key': 'manager', 'value': '041'}, {'key': 'installationDate', 'value': '2020-11-11'}, {'key': 'qualityAssuranceDate', 'value': '2022-11-30'}, {'key': 'address', 'value': '广东省广州市南沙区黄阁镇银华街'}]}</t>
+          <t>{'configurableAttrs': [], 'uid': 'test0oj2W3ygup', 'name': 'test0oj2W3ygup', 'deviceModelId': '786622402234785792', 'id': '788077122979733504', 'appLabelList': {'deviceArea': '001', 'manager': '001', 'installationDate': '2020-12-13', 'qualityAssuranceDate': '2022-12-31', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': '', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.525099, 22.79633], 'type': 'Point'}, 'realVirtualMark': 'REAL', 'onlineStatus': 'UNACTIVATED', 'deviceType': 'WeatherStation', 'appLabels': [{'key': 'deviceArea', 'value': '001'}, {'key': 'manager', 'value': '001'}, {'key': 'installationDate', 'value': '2020-12-13'}, {'key': 'qualityAssuranceDate', 'value': '2022-12-31'}]}</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/byName?name=11</t>
+          <t>http://island.iot-cas.com:8081/island/device/byName?name=11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/device/byUid?uid=11</t>
+          <t>http://island.iot-cas.com:8081/island/device/byUid?uid=11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/deviceModel</t>
+          <t>http://island.iot-cas.com:8081/island/deviceModel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -599,7 +599,7 @@
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices?pageSize=10&amp;pageNum=2</t>
+          <t>http://island.iot-cas.com:8081/island/devices?pageSize=10&amp;pageNum=2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices/getByIds?ids=780457073229545472</t>
+          <t>http://island.iot-cas.com:8081/island/devices/getByIds?ids=788077122979733504</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices/select</t>
+          <t>http://island.iot-cas.com:8081/island/devices/select</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>http://island.dev.iot-cas.com:8081/island/devices?ids=780457073229545472</t>
+          <t>http://island.iot-cas.com:8081/island/devices?ids=788077122979733504</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -698,12 +698,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A2" display="http://island.dev.iot-cas.com:8081/island/device" r:id="rId1"/>
+    <hyperlink ref="A3" display="http://island.dev.iot-cas.com:8081/island/device/byName?name=11" r:id="rId2"/>
+    <hyperlink ref="A4" display="http://island.dev.iot-cas.com:8081/island/device/byUid?uid=11" r:id="rId3"/>
+    <hyperlink ref="A5" display="http://island.dev.iot-cas.com:8081/island/deviceModel" r:id="rId4"/>
+    <hyperlink ref="A6" display="http://island.dev.iot-cas.com:8081/island/devices?pageSize=10&amp;pageNum=2" r:id="rId5"/>
+    <hyperlink ref="A8" display="http://island.dev.iot-cas.com:8081/island/devices/select" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
